--- a/medicine/Mort/Cimetière_d'Igualada/Cimetière_d'Igualada.xlsx
+++ b/medicine/Mort/Cimetière_d'Igualada/Cimetière_d'Igualada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Igualada</t>
+          <t>Cimetière_d'Igualada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Igualada ou nouveau cimetière (catalan : Cementiri Nou ) est un cimetière situé à Igualada, près de Barcelone, dans l'Anoia, en Catalogne.
 Œuvre d'architecture contemporaine, le lieu fait partie du patrimoine remarquable européen du XXe siècle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Igualada</t>
+          <t>Cimetière_d'Igualada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conçu par les architectes Enric Miralles et Carme Pinós, le cimetière est construit entre 1985 et 1994 pour remplacer le Vieux Cimetière (en catalan : Cementiri Vell) de la ville d'Igualada[1].
-Le cimetière, conçu comme un parc[2], est considéré comme l'une des œuvres les plus poétiques de l'architecture catalane du XXe siècle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conçu par les architectes Enric Miralles et Carme Pinós, le cimetière est construit entre 1985 et 1994 pour remplacer le Vieux Cimetière (en catalan : Cementiri Vell) de la ville d'Igualada.
+Le cimetière, conçu comme un parc, est considéré comme l'une des œuvres les plus poétiques de l'architecture catalane du XXe siècle.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Igualada</t>
+          <t>Cimetière_d'Igualada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'architecte Enric Miralles, décédé en l'an 2000 à Sant Feliu de Codines, est enterré dans l'une des sépultures du cimetière[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'architecte Enric Miralles, décédé en l'an 2000 à Sant Feliu de Codines, est enterré dans l'une des sépultures du cimetière.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Igualada</t>
+          <t>Cimetière_d'Igualada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Personnalités inhumées dans le cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Enric Miralles (1955-2000), architecte catalan, créateur du lieu.</t>
         </is>
